--- a/各个子模块/模型模块/位置/lstm100_sta.xlsx
+++ b/各个子模块/模型模块/位置/lstm100_sta.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:6">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -388,185 +388,65 @@
       <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.40873770472528</v>
+        <v>21.73127515926065</v>
       </c>
       <c r="C2">
-        <v>22.38213046635672</v>
+        <v>22.24799373665578</v>
       </c>
       <c r="D2">
-        <v>22.5488726316086</v>
+        <v>21.96955927168013</v>
       </c>
       <c r="E2">
-        <v>22.20211018772484</v>
+        <v>22.14288731833672</v>
       </c>
       <c r="F2">
-        <v>22.26927194384905</v>
-      </c>
-      <c r="G2">
-        <v>22.25471455314189</v>
-      </c>
-      <c r="H2">
-        <v>21.78031691790636</v>
-      </c>
-      <c r="I2">
-        <v>22.2518251459633</v>
-      </c>
-      <c r="J2">
-        <v>22.7186808684864</v>
-      </c>
-      <c r="K2">
-        <v>21.32118923680425</v>
-      </c>
-      <c r="L2">
-        <v>22.65033948485683</v>
-      </c>
-      <c r="M2">
-        <v>23.07332960323842</v>
-      </c>
-      <c r="N2">
-        <v>21.8765776005453</v>
-      </c>
-      <c r="O2">
-        <v>21.80766493403059</v>
-      </c>
-      <c r="P2">
-        <v>21.87427419391442</v>
+        <v>20.63796765767989</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7996477490000926</v>
+        <v>0.8409186409080017</v>
       </c>
       <c r="C3">
-        <v>0.7966810223422955</v>
+        <v>0.8469091549003173</v>
       </c>
       <c r="D3">
-        <v>0.8207128788855862</v>
+        <v>0.8531512262474993</v>
       </c>
       <c r="E3">
-        <v>0.762496058862234</v>
+        <v>0.7736194524333083</v>
       </c>
       <c r="F3">
-        <v>0.8007209571979975</v>
-      </c>
-      <c r="G3">
-        <v>0.8517094919395058</v>
-      </c>
-      <c r="H3">
-        <v>0.7973936504415325</v>
-      </c>
-      <c r="I3">
-        <v>0.7958610025695029</v>
-      </c>
-      <c r="J3">
-        <v>0.9497878869651981</v>
-      </c>
-      <c r="K3">
-        <v>0.7913636113385123</v>
-      </c>
-      <c r="L3">
-        <v>0.8684322441707363</v>
-      </c>
-      <c r="M3">
-        <v>0.9580555832828421</v>
-      </c>
-      <c r="N3">
-        <v>0.7763537453438801</v>
-      </c>
-      <c r="O3">
-        <v>0.7735814748432126</v>
-      </c>
-      <c r="P3">
-        <v>0.7915133096528966</v>
+        <v>0.6593637002484213</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>947.3828620189273</v>
+        <v>881.8885365765345</v>
       </c>
       <c r="C4">
-        <v>1003.974335180377</v>
+        <v>948.5655831180338</v>
       </c>
       <c r="D4">
-        <v>941.1240265198848</v>
+        <v>906.8802910930667</v>
       </c>
       <c r="E4">
-        <v>1008.548837965042</v>
+        <v>998.8662015359967</v>
       </c>
       <c r="F4">
-        <v>962.7256484498425</v>
-      </c>
-      <c r="G4">
-        <v>891.0880718770603</v>
-      </c>
-      <c r="H4">
-        <v>912.9000142973686</v>
-      </c>
-      <c r="I4">
-        <v>980.0995133332046</v>
-      </c>
-      <c r="J4">
-        <v>915.6299508430023</v>
-      </c>
-      <c r="K4">
-        <v>853.9663204637064</v>
-      </c>
-      <c r="L4">
-        <v>929.6504341025171</v>
-      </c>
-      <c r="M4">
-        <v>940.6997926264388</v>
-      </c>
-      <c r="N4">
-        <v>943.5107345017684</v>
-      </c>
-      <c r="O4">
-        <v>945.7031439610588</v>
-      </c>
-      <c r="P4">
-        <v>935.2673563322143</v>
+        <v>871.6605100481011</v>
       </c>
     </row>
   </sheetData>

--- a/各个子模块/模型模块/位置/lstm100_sta.xlsx
+++ b/各个子模块/模型模块/位置/lstm100_sta.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -388,65 +388,125 @@
       <c r="F1" s="1">
         <v>4</v>
       </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.73127515926065</v>
+        <v>23.08347367554933</v>
       </c>
       <c r="C2">
-        <v>22.24799373665578</v>
+        <v>22.15541560036382</v>
       </c>
       <c r="D2">
-        <v>21.96955927168013</v>
+        <v>22.31080791771915</v>
       </c>
       <c r="E2">
-        <v>22.14288731833672</v>
+        <v>20.91539062352392</v>
       </c>
       <c r="F2">
-        <v>20.63796765767989</v>
+        <v>22.22918512220304</v>
+      </c>
+      <c r="G2">
+        <v>22.61695365143284</v>
+      </c>
+      <c r="H2">
+        <v>22.1514143254396</v>
+      </c>
+      <c r="I2">
+        <v>20.35510275650688</v>
+      </c>
+      <c r="J2">
+        <v>21.92233993157626</v>
+      </c>
+      <c r="K2">
+        <v>22.03257398041993</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8409186409080017</v>
+        <v>0.9639211599239368</v>
       </c>
       <c r="C3">
-        <v>0.8469091549003173</v>
+        <v>0.8732535465180176</v>
       </c>
       <c r="D3">
-        <v>0.8531512262474993</v>
+        <v>0.8685406115070673</v>
       </c>
       <c r="E3">
-        <v>0.7736194524333083</v>
+        <v>0.7153135626258493</v>
       </c>
       <c r="F3">
-        <v>0.6593637002484213</v>
+        <v>0.8446313276020374</v>
+      </c>
+      <c r="G3">
+        <v>0.9210181029114721</v>
+      </c>
+      <c r="H3">
+        <v>0.8142073176403382</v>
+      </c>
+      <c r="I3">
+        <v>0.6728335432079607</v>
+      </c>
+      <c r="J3">
+        <v>0.7811247141074948</v>
+      </c>
+      <c r="K3">
+        <v>0.8723712352109324</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>881.8885365765345</v>
+        <v>957.9315563258385</v>
       </c>
       <c r="C4">
-        <v>948.5655831180338</v>
+        <v>896.5289494778424</v>
       </c>
       <c r="D4">
-        <v>906.8802910930667</v>
+        <v>897.96884197495</v>
       </c>
       <c r="E4">
-        <v>998.8662015359967</v>
+        <v>869.1265771480535</v>
       </c>
       <c r="F4">
-        <v>871.6605100481011</v>
+        <v>941.7640375850756</v>
+      </c>
+      <c r="G4">
+        <v>911.9684192771686</v>
+      </c>
+      <c r="H4">
+        <v>945.0420112249928</v>
+      </c>
+      <c r="I4">
+        <v>860.6675997174283</v>
+      </c>
+      <c r="J4">
+        <v>952.4423879093379</v>
+      </c>
+      <c r="K4">
+        <v>910.5143363739774</v>
       </c>
     </row>
   </sheetData>
